--- a/英文單字.xlsx
+++ b/英文單字.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5566\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5566\Desktop\日文文法+英文單字\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C7927A-1989-4189-9774-9A349CB6E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13E7B2-DFBB-4C19-9535-DFC8F7043BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{26E3A03A-9662-42B6-95B8-14BCA276CC7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26E3A03A-9662-42B6-95B8-14BCA276CC7E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>durable 牢固的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,15 +1051,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>absurd不合理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wreck破壞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abusing 虐待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vomiting 嘔吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible  可忽略的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposals 提案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flawless 完美無瑕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumpled 皺巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unkempt 不整潔的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disciplined 紀律嚴明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaculate 極其整潔的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apathetic 冷漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perceived 批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superficial 表面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">temper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>脾氣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attire 服裝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1162,12 +1223,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1209,7 +1264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,10 +1304,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA84DAE5-81C0-44B2-95F0-878F312B7D1D}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="30" customHeight="1"/>
@@ -1807,11 +1859,14 @@
       <c r="T4" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="U4" t="s">
+        <v>216</v>
+      </c>
       <c r="V4" t="s">
         <v>204</v>
       </c>
       <c r="W4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1">
@@ -1861,6 +1916,9 @@
       <c r="T5" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="V5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1937,7 +1995,9 @@
       <c r="M7" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="7" t="s">
         <v>89</v>
@@ -2005,6 +2065,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="I9" t="s">
         <v>105</v>
@@ -2056,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
@@ -2190,6 +2253,9 @@
       <c r="P15" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="R15" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="S15" s="1" t="s">
         <v>93</v>
       </c>
@@ -2221,7 +2287,10 @@
       <c r="C17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>188</v>
       </c>
       <c r="P17" s="9" t="s">
@@ -2238,6 +2307,9 @@
       <c r="C18" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="I18" t="s">
+        <v>218</v>
+      </c>
       <c r="P18" s="7" t="s">
         <v>178</v>
       </c>
@@ -2247,7 +2319,7 @@
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
         <v>196</v>
@@ -2260,7 +2332,10 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
@@ -2271,11 +2346,23 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="S21" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="S22" s="1" t="s">
         <v>163</v>
       </c>
@@ -2298,6 +2385,11 @@
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="S26" s="1" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" customHeight="1">
+      <c r="S27" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
